--- a/botCode/workWithExcelFile/excelDatabase/11class/М1, Ф1, М-1-1, Р-3, Л-3.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/11class/М1, Ф1, М-1-1, Р-3, Л-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М1, Ф1, М-1-1, Р-3, Л-3" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Учитель англ.яз</t>
+  </si>
   <si>
     <t>Понедельник</t>
   </si>
   <si>
+    <t>Дюкарев Вадим Михайлович</t>
+  </si>
+  <si>
+    <t>Штойк 11.8</t>
+  </si>
+  <si>
     <t>Предмет</t>
   </si>
   <si>
@@ -38,25 +50,28 @@
     <t>Учитель</t>
   </si>
   <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
-    <t>Дюкарев Вадим Михайлович</t>
+    <t>Французова Юлия Андреевна</t>
+  </si>
+  <si>
+    <t>Урок для практических занятий (классрум на время)</t>
+  </si>
+  <si>
+    <t>Classroom+Zoom</t>
   </si>
   <si>
     <t>Информатика</t>
   </si>
   <si>
+    <t>Яценко Александр Вячеславович </t>
+  </si>
+  <si>
     <t>М-11-1-1</t>
   </si>
   <si>
     <t>Киселева</t>
   </si>
   <si>
-    <t>Французова Юлия Андреевна</t>
-  </si>
-  <si>
-    <t>Яценко Александр Вячеславович </t>
+    <t>Zoom</t>
   </si>
   <si>
     <t>Физика</t>
@@ -92,9 +107,6 @@
     <t>Р-11-3, Р-11-2</t>
   </si>
   <si>
-    <t>см.таблицу после пятницы</t>
-  </si>
-  <si>
     <t>Биология</t>
   </si>
   <si>
@@ -116,6 +128,12 @@
     <t>Пивоваров</t>
   </si>
   <si>
+    <t>МХК</t>
+  </si>
+  <si>
+    <t>Хамидова</t>
+  </si>
+  <si>
     <t>Среда</t>
   </si>
   <si>
@@ -140,6 +158,9 @@
     <t>Мянник</t>
   </si>
   <si>
+    <t>Спецмат</t>
+  </si>
+  <si>
     <t>Литература</t>
   </si>
   <si>
@@ -149,38 +170,20 @@
     <t>Четверг</t>
   </si>
   <si>
-    <t>Панькина/Бочкарева</t>
-  </si>
-  <si>
-    <t>403/201</t>
-  </si>
-  <si>
     <t>Пятница</t>
   </si>
   <si>
-    <t>ОКНО</t>
-  </si>
-  <si>
     <t>Р-11-2, Р-11-3</t>
   </si>
   <si>
-    <t>физ-ра</t>
-  </si>
-  <si>
-    <t>спорт.зал</t>
-  </si>
-  <si>
-    <t>МХК</t>
-  </si>
-  <si>
-    <t>Хамидова</t>
+    <t>Английский язык</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,18 +193,56 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,17 +251,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -262,6 +348,19 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -275,32 +374,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -316,43 +543,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7820025" cy="2124075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Изображение"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="12163425"/>
-          <a:ext cx="7820025" cy="2124075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,11 +808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:G1000"/>
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -631,851 +821,850 @@
     <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="31.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.625" style="1"/>
+    <col min="8" max="8" width="22.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="G3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="E4" s="6">
-        <v>402</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>5</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="B22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>8</v>
       </c>
-      <c r="E5" s="6">
-        <v>402</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="B23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>9</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>1</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>2</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>3</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>4</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="F31" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>5</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>6</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>7</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>8</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>9</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>1</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>2</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>4</v>
+      </c>
+      <c r="B43" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C43" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="D43" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>5</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>6</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>7</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>8</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>9</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>1</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>2</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>3</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B56" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B57" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>1</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="6">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>3</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="6">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>4</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="6">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>5</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="6">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>6</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="6">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>7</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="6">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="6">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>9</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="6">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>1</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>2</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="6">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>3</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="6">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>4</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>5</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="6">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>6</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="6">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>7</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>8</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>9</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>1</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>2</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>3</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="6">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>4</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="6">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>5</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="6">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>6</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="6">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>7</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>8</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>9</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>1</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>2</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>3</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>4</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>5</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="6">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>6</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="6">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>7</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="6">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>8</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>9</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="6">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2807,18 +2996,25 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D59:E59"/>
+  <mergeCells count="16">
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/botCode/workWithExcelFile/excelDatabase/11class/М1, Ф1, М-1-1, Р-3, Л-3.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/11class/М1, Ф1, М-1-1, Р-3, Л-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="М1, Ф1, М-1-1, Р-3, Л-3" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
   <si>
     <t>ФИО</t>
   </si>
   <si>
-    <t>Учитель англ.яз</t>
-  </si>
-  <si>
     <t>Понедельник</t>
   </si>
   <si>
     <t>Дюкарев Вадим Михайлович</t>
-  </si>
-  <si>
-    <t>Штойк 11.8</t>
   </si>
   <si>
     <t>Предмет</t>
@@ -183,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +197,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -218,12 +205,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -241,8 +222,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,12 +240,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,18 +257,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -348,19 +324,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -372,17 +335,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -423,30 +375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -459,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -468,66 +396,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -809,10 +719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -824,836 +734,819 @@
     <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="31.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="12.625" style="1"/>
+    <col min="8" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E1" s="2"/>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="G3" s="8" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="F4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>5</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>7</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>8</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>9</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>1</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>3</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>4</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>5</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>6</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>7</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>8</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>9</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>1</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>2</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>3</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>4</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="D43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="E43" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>5</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>6</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>7</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>8</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>9</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>1</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="B54" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>4</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>5</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>6</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="D57" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>7</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="D58" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>2</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>3</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>4</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>5</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>6</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>7</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>8</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>9</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>1</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>2</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>3</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="26"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>4</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>5</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="26"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>6</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="26"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>7</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>8</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>9</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>1</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>2</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>3</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>4</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>5</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>6</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>7</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>8</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <v>9</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>1</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>2</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>3</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>4</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
-        <v>5</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
-        <v>6</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>7</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
-        <v>8</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>9</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
@@ -2996,23 +2889,21 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="B52:D52"/>
+  <mergeCells count="14">
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B31:D31"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="H2:H4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="A26:E26"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/botCode/workWithExcelFile/excelDatabase/11class/М1, Ф1, М-1-1, Р-3, Л-3.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/11class/М1, Ф1, М-1-1, Р-3, Л-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М1, Ф1, М-1-1, Р-3, Л-3" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
   <si>
     <t>ФИО</t>
   </si>
@@ -152,25 +152,28 @@
     <t>Мянник</t>
   </si>
   <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>Калинина</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
     <t>Спецмат</t>
   </si>
   <si>
-    <t>Литература</t>
-  </si>
-  <si>
-    <t>Калинина</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
     <t>Р-11-2, Р-11-3</t>
   </si>
   <si>
     <t>Английский язык</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -187,32 +190,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="2"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -220,14 +218,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -239,30 +235,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF4B083"/>
+        <bgColor rgb="FFF4B083"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor rgb="FFFBE4D5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -272,16 +268,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -323,62 +319,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -387,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -404,40 +348,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -721,20 +654,19 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:F46"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.625" style="1"/>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.875" style="1" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -778,12 +710,12 @@
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -794,34 +726,34 @@
       <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -829,16 +761,16 @@
       <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -846,16 +778,16 @@
       <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -872,7 +804,7 @@
       <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -889,7 +821,7 @@
       <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -912,7 +844,7 @@
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="14"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -948,7 +880,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -965,7 +897,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -982,7 +914,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -993,12 +925,12 @@
       <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1015,7 +947,7 @@
       <c r="D20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1032,7 +964,7 @@
       <c r="D21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1040,16 +972,16 @@
       <c r="A22" s="8">
         <v>7</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1057,16 +989,16 @@
       <c r="A23" s="8">
         <v>8</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1080,7 +1012,7 @@
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="14"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1109,19 +1041,19 @@
       <c r="A28" s="8">
         <v>1</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
@@ -1136,10 +1068,10 @@
       <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
@@ -1154,10 +1086,10 @@
       <c r="D30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
@@ -1166,13 +1098,13 @@
       <c r="B31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>42</v>
+      <c r="F31" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,36 +1112,36 @@
         <v>5</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>6</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
@@ -1224,27 +1156,27 @@
       <c r="A35" s="8">
         <v>8</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>9</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="14"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1271,12 +1203,12 @@
       <c r="B40" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1284,16 +1216,16 @@
       <c r="A41" s="8">
         <v>2</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1304,12 +1236,12 @@
       <c r="B42" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1317,16 +1249,16 @@
       <c r="A43" s="8">
         <v>4</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1334,16 +1266,16 @@
       <c r="A44" s="8">
         <v>5</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1351,17 +1283,10 @@
       <c r="A45" s="8">
         <v>6</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
@@ -1390,20 +1315,20 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
         <v>3</v>
@@ -1416,23 +1341,23 @@
       </c>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>1</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="12" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>2</v>
       </c>
@@ -1443,43 +1368,46 @@
         <v>47</v>
       </c>
       <c r="D53" s="8"/>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>3</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>4</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>5</v>
       </c>
@@ -1492,11 +1420,11 @@
       <c r="D56" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>6</v>
       </c>
@@ -1509,11 +1437,11 @@
       <c r="D57" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>7</v>
       </c>
@@ -1526,11 +1454,11 @@
       <c r="D58" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>8</v>
       </c>
@@ -1539,7 +1467,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>9</v>
       </c>
@@ -1548,16 +1476,16 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,15 +2817,14 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B54:D54"/>
+  <mergeCells count="13">
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B45:D45"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A14:E14"/>
